--- a/Proyectos Trabajos/Zuma/Proyecto 1/Documentacion/Catalogos/Menu MIni ERP.xlsx
+++ b/Proyectos Trabajos/Zuma/Proyecto 1/Documentacion/Catalogos/Menu MIni ERP.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyectos\Proyectos Trabajos\Zuma\Proyecto 1\Documentacion\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="SIS_ARBOLMENU" sheetId="2" r:id="rId2"/>
+    <sheet name="COM_ORDENCOMPRA" sheetId="3" r:id="rId3"/>
+    <sheet name="COM_PRODUCTOS" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>Comercial</t>
   </si>
@@ -198,6 +199,63 @@
   </si>
   <si>
     <t>/Movimientos/Eliminar.aspx</t>
+  </si>
+  <si>
+    <t>NOORDENCOMPRA</t>
+  </si>
+  <si>
+    <t>IDALAMACENES</t>
+  </si>
+  <si>
+    <t>IDESTATUSCOMPRA</t>
+  </si>
+  <si>
+    <t>FECHAENTREGA</t>
+  </si>
+  <si>
+    <t>FECHAPEDIDO</t>
+  </si>
+  <si>
+    <t>CANTIDADTOTAL</t>
+  </si>
+  <si>
+    <t>ENTREGAFRACCIONARIA</t>
+  </si>
+  <si>
+    <t>BORRADO</t>
+  </si>
+  <si>
+    <t>CO1902EJ</t>
+  </si>
+  <si>
+    <t>IDPRODUCTOS</t>
+  </si>
+  <si>
+    <t>NOMBREPRODUCTO</t>
+  </si>
+  <si>
+    <t>LOTE</t>
+  </si>
+  <si>
+    <t>CANTIDADPRODUCTO</t>
+  </si>
+  <si>
+    <t>PRECIOUNITARIO</t>
+  </si>
+  <si>
+    <t>Producto 1</t>
+  </si>
+  <si>
+    <t>BIS30042015</t>
+  </si>
+  <si>
+    <t>Producto 2</t>
+  </si>
+  <si>
+    <t>producto 3</t>
+  </si>
+  <si>
+    <t>BIS20042015</t>
   </si>
 </sst>
 </file>
@@ -531,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,12 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -586,6 +638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -937,14 +996,14 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
@@ -956,13 +1015,13 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -979,11 +1038,11 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
@@ -994,11 +1053,11 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1009,13 +1068,13 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -1028,11 +1087,11 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1041,11 +1100,11 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="27"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1054,13 +1113,13 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1071,11 +1130,11 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1084,11 +1143,11 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1097,13 +1156,13 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1114,11 +1173,11 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1127,11 +1186,11 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="27"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="14"/>
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
@@ -1139,16 +1198,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1792,12 +1851,204 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>42124</v>
+      </c>
+      <c r="E2" s="30">
+        <v>42068</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="30">
+        <v>42124</v>
+      </c>
+      <c r="G2">
+        <v>15.5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="30">
+        <v>42124</v>
+      </c>
+      <c r="G3">
+        <v>21.25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="30">
+        <v>42124</v>
+      </c>
+      <c r="G4">
+        <v>35.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>